--- a/mbs-perturbation/mega/decisionTree/mega-decisionTree-results.xlsx
+++ b/mbs-perturbation/mega/decisionTree/mega-decisionTree-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3260869565217391</v>
+        <v>0.3106796116504854</v>
       </c>
       <c r="C2" t="n">
-        <v>0.625</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4285714285714286</v>
+        <v>0.4353741496598639</v>
       </c>
       <c r="E2" t="n">
-        <v>0.568380376344086</v>
+        <v>0.6005917159763313</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7741935483870968</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="C3" t="n">
         <v>0.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6075949367088608</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5859094982078853</v>
+        <v>0.5353012372243142</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2830188679245283</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3125</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="D4" t="n">
-        <v>0.297029702970297</v>
+        <v>0.7532467532467532</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6255630630630631</v>
+        <v>0.6721480666024493</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2857142857142857</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2553191489361702</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2696629213483146</v>
+        <v>0.3137254901960785</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4104323953328758</v>
+        <v>0.8301912756295583</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1063829787234043</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1851851851851852</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5585106382978724</v>
+        <v>0.7346222650337141</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4766598745666729</v>
+        <v>0.7305019354019925</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3598404255319149</v>
+        <v>0.4966173361522198</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3576088349568172</v>
+        <v>0.5126790164482544</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5497591942491564</v>
+        <v>0.6745709120932735</v>
       </c>
     </row>
   </sheetData>
